--- a/data/trans_dic/CONS_ANS-Clase-trans_dic.xlsx
+++ b/data/trans_dic/CONS_ANS-Clase-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -568,62 +569,62 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>Barcelona</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>Barcelona</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="L2" s="3" t="inlineStr">
-        <is>
-          <t>Barcelona</t>
-        </is>
-      </c>
-      <c r="M2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="N2" s="3" t="inlineStr">
-        <is>
-          <t>País Vasco</t>
         </is>
       </c>
     </row>
@@ -656,62 +657,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>2,89%</t>
+          <t>3,48%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
+          <t>4,97%</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>2,45%</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
           <t>4,44%</t>
         </is>
       </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>3,53%</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>3,5%</t>
-        </is>
-      </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>6,76%</t>
+          <t>3,85%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
+          <t>3,45%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>6,56%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
           <t>6,09%</t>
         </is>
       </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>3,15%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>3,9%</t>
-        </is>
-      </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>4,71%</t>
+          <t>3,66%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
+          <t>4,29%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>4,44%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
           <t>5,28%</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>3,35%</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>3,7%</t>
         </is>
       </c>
     </row>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,76; 4,66</t>
+          <t>2,27; 5,24</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>2,84; 6,66</t>
+          <t>2,94; 7,35</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>2,35; 5,5</t>
+          <t>1,39; 4,2</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>2,41; 5,02</t>
+          <t>2,85; 6,51</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>4,57; 9,49</t>
+          <t>2,74; 5,38</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>4,25; 8,21</t>
+          <t>1,99; 5,52</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>1,88; 5,28</t>
+          <t>4,37; 9,47</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>2,87; 5,24</t>
+          <t>4,28; 8,13</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>3,53; 6,05</t>
+          <t>2,8; 4,79</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>4,11; 6,88</t>
+          <t>3,05; 5,96</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>2,43; 4,45</t>
+          <t>3,13; 5,9</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>2,95; 4,66</t>
+          <t>4,04; 6,74</t>
         </is>
       </c>
     </row>
@@ -796,62 +797,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>6,15%</t>
+          <t>4,8%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
+          <t>4,07%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>5,74%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
           <t>8,52%</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>3,24%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>4,25%</t>
-        </is>
-      </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>5,59%</t>
+          <t>4,91%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
+          <t>6,03%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>5,14%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
           <t>11,17%</t>
         </is>
       </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>6,19%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>5,32%</t>
-        </is>
-      </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>5,85%</t>
+          <t>4,86%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
+          <t>4,94%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>5,41%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
           <t>10,05%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>4,61%</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>4,88%</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>4,01; 9,06</t>
+          <t>2,94; 7,45</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>5,53; 12,7</t>
+          <t>2,29; 6,65</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,89; 5,09</t>
+          <t>3,72; 8,83</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>2,71; 6,86</t>
+          <t>5,4; 13,02</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>3,78; 8,48</t>
+          <t>3,34; 6,95</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>8,37; 14,85</t>
+          <t>3,85; 8,99</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>4,43; 8,55</t>
+          <t>3,39; 7,97</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>3,91; 7,15</t>
+          <t>8,09; 14,81</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>4,38; 7,5</t>
+          <t>3,67; 6,55</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>7,89; 12,57</t>
+          <t>3,46; 6,8</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>3,43; 6,0</t>
+          <t>3,96; 7,34</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>3,8; 6,27</t>
+          <t>7,95; 12,59</t>
         </is>
       </c>
     </row>
@@ -936,62 +937,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>4,24%</t>
+          <t>4,4%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
+          <t>3,72%</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>3,8%</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
           <t>9,57%</t>
         </is>
       </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>5,74%</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>3,96%</t>
-        </is>
-      </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>11,07%</t>
+          <t>9,49%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
+          <t>9,94%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>11,78%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
           <t>20,56%</t>
         </is>
       </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>10,8%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>7,86%</t>
-        </is>
-      </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>6,37%</t>
+          <t>5,82%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
+          <t>4,77%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>6,31%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
           <t>13,68%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>7,09%</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>5,04%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,4; 6,68</t>
+          <t>3,19; 6,28</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>5,68; 16,55</t>
+          <t>0,82; 8,89</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>3,64; 8,12</t>
+          <t>2,16; 6,58</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>2,85; 5,31</t>
+          <t>5,47; 16,32</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>6,68; 16,74</t>
+          <t>6,89; 13,0</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>12,68; 31,17</t>
+          <t>5,77; 15,6</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>7,57; 15,39</t>
+          <t>7,31; 18,1</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>5,67; 10,6</t>
+          <t>13,06; 31,71</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>4,57; 8,59</t>
+          <t>4,57; 7,44</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>9,69; 19,12</t>
+          <t>1,37; 9,46</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>4,9; 9,49</t>
+          <t>4,3; 8,97</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>4,01; 6,42</t>
+          <t>9,41; 19,24</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1077,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>6,09%</t>
+          <t>6,9%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
+          <t>5,29%</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>5,31%</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
           <t>7,85%</t>
         </is>
       </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>4,58%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>6,78%</t>
-        </is>
-      </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>7,22%</t>
+          <t>8,67%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>16,87%</t>
+          <t>5,65%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>7,08%</t>
+          <t>6,88%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>9,02%</t>
+          <t>16,9%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>6,64%</t>
+          <t>7,8%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>12,3%</t>
+          <t>5,49%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>5,75%</t>
+          <t>6,11%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>7,92%</t>
+          <t>12,31%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>4,4; 8,66</t>
+          <t>5,26; 8,73</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>5,19; 11,84</t>
+          <t>3,68; 7,48</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>3,61; 5,99</t>
+          <t>3,55; 7,25</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>5,37; 8,49</t>
+          <t>5,17; 11,64</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>5,39; 9,57</t>
+          <t>7,05; 10,99</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>12,24; 23,78</t>
+          <t>2,14; 8,93</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>4,82; 8,73</t>
+          <t>5,01; 9,17</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>7,4; 10,94</t>
+          <t>12,27; 23,43</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>5,3; 8,27</t>
+          <t>6,62; 9,24</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>9,45; 15,89</t>
+          <t>2,96; 7,21</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>4,63; 6,75</t>
+          <t>4,73; 7,67</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>6,9; 9,16</t>
+          <t>9,34; 16,1</t>
         </is>
       </c>
     </row>
@@ -1216,62 +1217,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>3,73%</t>
+          <t>5,35%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
+          <t>4,94%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>3,54%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
           <t>2,97%</t>
         </is>
       </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>6,46%</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>5,05%</t>
-        </is>
-      </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>10,63%</t>
+          <t>9,37%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
+          <t>11,52%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>10,64%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
           <t>17,25%</t>
         </is>
       </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>12,12%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>8,77%</t>
-        </is>
-      </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>7,19%</t>
+          <t>7,9%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
+          <t>9,33%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>7,15%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
           <t>12,06%</t>
-        </is>
-      </c>
-      <c r="M12" s="2" t="inlineStr">
-        <is>
-          <t>10,0%</t>
-        </is>
-      </c>
-      <c r="N12" s="2" t="inlineStr">
-        <is>
-          <t>7,36%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>1,97; 6,29</t>
+          <t>3,43; 8,27</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,79; 7,88</t>
+          <t>2,41; 8,55</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>4,54; 9,41</t>
+          <t>1,77; 6,28</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>3,41; 7,15</t>
+          <t>0,76; 8,74</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>7,52; 15,2</t>
+          <t>7,2; 11,85</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>11,3; 24,9</t>
+          <t>6,43; 15,65</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>10,26; 15,44</t>
+          <t>7,23; 16,24</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>6,77; 10,73</t>
+          <t>11,22; 24,84</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>5,12; 9,84</t>
+          <t>6,32; 9,9</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>7,96; 17,86</t>
+          <t>6,31; 12,36</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>8,61; 12,01</t>
+          <t>5,1; 10,31</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>5,9; 8,71</t>
+          <t>8,21; 17,9</t>
         </is>
       </c>
     </row>
@@ -1356,62 +1357,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>6,58%</t>
+          <t>0,62%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>8,84%</t>
+          <t>2,35%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>2,52%</t>
+          <t>4,63%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>1,66%</t>
+          <t>9,57%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>10,62%</t>
+          <t>9,62%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>13,11%</t>
+          <t>10,41%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>10,2%</t>
+          <t>13,79%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>8,23%</t>
+          <t>13,49%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>8,77%</t>
+          <t>7,13%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>11,49%</t>
+          <t>8,36%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>8,42%</t>
+          <t>9,82%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>6,12%</t>
+          <t>12,04%</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1425,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 27,54</t>
+          <t>0,0; 2,56</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>3,25; 24,34</t>
+          <t>0,68; 6,92</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>1,01; 5,56</t>
+          <t>0,0; 21,65</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0,82; 3,54</t>
+          <t>3,31; 25,35</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 32,3</t>
+          <t>7,15; 12,37</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>7,31; 21,22</t>
+          <t>8,5; 13,11</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>8,59; 11,98</t>
+          <t>0,0; 37,41</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>6,45; 10,12</t>
+          <t>7,58; 21,44</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>2,77; 20,35</t>
+          <t>5,4; 9,1</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>7,22; 18,19</t>
+          <t>6,74; 10,49</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>7,06; 9,97</t>
+          <t>2,1; 25,69</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>4,86; 7,6</t>
+          <t>7,66; 19,28</t>
         </is>
       </c>
     </row>
@@ -1496,62 +1497,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>4,69%</t>
+          <t>4,73%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>6,87%</t>
+          <t>4,42%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>4,51%</t>
+          <t>4,17%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>4,5%</t>
+          <t>6,9%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>7,62%</t>
+          <t>7,54%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>12,6%</t>
+          <t>7,77%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>8,51%</t>
+          <t>7,42%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>7,27%</t>
+          <t>12,63%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>6,08%</t>
+          <t>6,19%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>9,88%</t>
+          <t>6,14%</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>6,63%</t>
+          <t>5,74%</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>5,94%</t>
+          <t>9,91%</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1565,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>3,91; 5,63</t>
+          <t>3,99; 5,56</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>5,61; 8,41</t>
+          <t>3,05; 5,53</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>3,8; 5,23</t>
+          <t>3,41; 5,25</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>3,9; 5,18</t>
+          <t>5,7; 8,67</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>6,5; 8,85</t>
+          <t>6,71; 8,39</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>10,69; 14,6</t>
+          <t>5,66; 9,22</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>7,54; 9,45</t>
+          <t>6,21; 8,72</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>6,6; 8,08</t>
+          <t>10,87; 14,82</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>5,37; 6,92</t>
+          <t>5,62; 6,78</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>8,67; 11,19</t>
+          <t>4,94; 7,19</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>6,05; 7,26</t>
+          <t>4,91; 6,49</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>5,45; 6,45</t>
+          <t>8,7; 11,3</t>
         </is>
       </c>
     </row>
@@ -1646,4 +1647,1630 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Consumo de ansiolíticos</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Grupo I y II</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>5069</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>18219</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>7248</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>9088</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>5506</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>10307</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>18140</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>12784</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>10575</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>28527</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>25387</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>21872</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>3311; 7641</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>10790; 26967</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>4093; 12408</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>5823; 13324</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>3918; 7681</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>5944; 16497</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>12105; 26202</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>8980; 17074</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>8079; 13826</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>20328; 39663</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>17935; 33766</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>16731; 27921</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Grupo III</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>3894</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>13204</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>11233</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>10651</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>5362</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>15676</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>11925</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>18805</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>9256</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>28881</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>23159</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>29456</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>2389; 6043</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>7416; 21535</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>7290; 17295</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>6752; 16265</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>3639; 7585</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>10020; 23389</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>7856; 18499</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>13613; 24917</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>6983; 12470</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>20230; 39731</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>16926; 31415</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>23315; 36917</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Grupo IV y V</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>7213</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>17696</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>6876</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>9199</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>5993</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>9634</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>9751</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>11804</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>13206</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>27330</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>16627</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>21003</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>5230; 10296</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>3904; 42273</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>3912; 11909</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>5263; 15696</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>4354; 8208</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>5594; 15121</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>6049; 14983</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>7495; 18202</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>10383; 16898</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>7820; 54152</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>11342; 23664</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>14446; 29542</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VI</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>154</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>11741</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>28387</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>16392</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>12812</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>15357</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>35978</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>21742</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>26788</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>27098</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>64365</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>38133</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>39600</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>8949; 14846</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>19706; 40125</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>10939; 22364</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>8427; 18988</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>12496; 19477</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>13589; 56829</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>15830; 28988</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>19450; 37150</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>22976; 32101</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>34675; 84587</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>29533; 47889</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>30044; 51802</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VII</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>4110</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>10406</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>5317</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>1596</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>12453</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>48818</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>16500</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>16233</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>16563</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>59225</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>21818</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>17830</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>2640; 6355</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>5069; 18018</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>2653; 9444</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>407; 4695</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>9568; 15747</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>27265; 66357</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>11217; 25185</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>10558; 23373</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>13250; 20763</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>40057; 78474</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>15565; 31474</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>12135; 26452</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>No ha trabajado</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>279</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>3925</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>433</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>3496</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>11378</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>50991</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>1688</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>8408</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>11656</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>54916</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>2121</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>11904</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>0; 1159</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>1141; 11543</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>0; 2024</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>1208; 9263</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>8460; 14627</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>41630; 64234</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>0; 4580</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>4723; 13358</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>8831; 14888</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>44240; 68884</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>453; 5547</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>7576; 19055</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>178</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>105</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>112</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>331</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>280</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>143</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>215</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>509</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>385</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>244</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>327</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>32307</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>91838</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>47498</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>46842</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>56048</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>171406</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>79746</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>94823</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>88355</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>263243</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>127244</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>141665</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>27235; 38002</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>63399; 114988</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>38878; 59839</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>38685; 58893</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>49920; 62404</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>124910; 203354</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>66736; 93762</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>81567; 111269</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>80155; 96665</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>211739; 308108</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>108832; 143839</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>124408; 161602</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Determinantes Ambientales de la Salud: proyecto multicéntrico a partir de Encuestas Poblacionales de la salud (proyecto DAS-EP, EXPEDIENTE ISCIII - PI22/01051 y PI22/00512)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/data/trans_dic/CONS_ANS-Clase-trans_dic.xlsx
+++ b/data/trans_dic/CONS_ANS-Clase-trans_dic.xlsx
@@ -535,7 +535,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de ansiolíticos</t>
+          <t>Consumo de ansiolíticos (tasa de respuesta: 99,66%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -1685,7 +1685,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de ansiolíticos</t>
+          <t>Consumo de ansiolíticos (tasa de respuesta: 99,66%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_dic/CONS_ANS-Clase-trans_dic.xlsx
+++ b/data/trans_dic/CONS_ANS-Clase-trans_dic.xlsx
@@ -657,7 +657,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>3,48%</t>
+          <t>3,44%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -677,7 +677,7 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>3,85%</t>
+          <t>4,17%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
@@ -697,7 +697,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>3,66%</t>
+          <t>3,81%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
@@ -725,12 +725,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2,27; 5,24</t>
+          <t>2,21; 5,05</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>2,94; 7,35</t>
+          <t>3,1; 7,56</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -740,17 +740,17 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>2,85; 6,51</t>
+          <t>2,96; 6,62</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>2,74; 5,38</t>
+          <t>3,02; 5,8</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>1,99; 5,52</t>
+          <t>2,08; 5,81</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -760,17 +760,17 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>4,28; 8,13</t>
+          <t>4,4; 8,23</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>2,8; 4,79</t>
+          <t>2,94; 5,04</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>3,05; 5,96</t>
+          <t>2,98; 6,03</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
@@ -780,7 +780,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>4,04; 6,74</t>
+          <t>4,1; 6,82</t>
         </is>
       </c>
     </row>
@@ -797,7 +797,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>4,8%</t>
+          <t>3,71%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -817,7 +817,7 @@
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>4,91%</t>
+          <t>4,97%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
@@ -837,7 +837,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>4,86%</t>
+          <t>4,43%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
@@ -865,12 +865,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,94; 7,45</t>
+          <t>2,2; 5,98</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,29; 6,65</t>
+          <t>2,4; 6,8</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -880,17 +880,17 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>5,4; 13,02</t>
+          <t>5,59; 12,67</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>3,34; 6,95</t>
+          <t>3,47; 7,06</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>3,85; 8,99</t>
+          <t>3,92; 9,12</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -900,17 +900,17 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>8,09; 14,81</t>
+          <t>8,43; 14,61</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>3,67; 6,55</t>
+          <t>3,24; 5,8</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>3,46; 6,8</t>
+          <t>3,57; 6,87</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
@@ -920,7 +920,7 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>7,95; 12,59</t>
+          <t>7,84; 12,79</t>
         </is>
       </c>
     </row>
@@ -937,7 +937,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>4,4%</t>
+          <t>4,04%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -957,7 +957,7 @@
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>9,49%</t>
+          <t>10,81%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
@@ -977,7 +977,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>5,82%</t>
+          <t>5,98%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
@@ -1005,12 +1005,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>3,19; 6,28</t>
+          <t>2,92; 5,62</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,82; 8,89</t>
+          <t>0,94; 8,8</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -1020,17 +1020,17 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>5,47; 16,32</t>
+          <t>5,83; 16,25</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>6,89; 13,0</t>
+          <t>7,69; 14,74</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>5,77; 15,6</t>
+          <t>5,9; 15,64</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -1040,17 +1040,17 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>13,06; 31,71</t>
+          <t>12,63; 30,83</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>4,57; 7,44</t>
+          <t>4,71; 7,5</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>1,37; 9,46</t>
+          <t>1,33; 9,32</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
@@ -1060,7 +1060,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>9,41; 19,24</t>
+          <t>9,8; 19,32</t>
         </is>
       </c>
     </row>
@@ -1077,7 +1077,7 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>6,9%</t>
+          <t>6,4%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
@@ -1097,7 +1097,7 @@
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>8,67%</t>
+          <t>8,05%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
@@ -1117,7 +1117,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>7,8%</t>
+          <t>7,26%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
@@ -1145,12 +1145,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>5,26; 8,73</t>
+          <t>4,98; 8,23</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>3,68; 7,48</t>
+          <t>3,69; 7,09</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1160,17 +1160,17 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>5,17; 11,64</t>
+          <t>5,23; 11,7</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>7,05; 10,99</t>
+          <t>6,5; 9,95</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>2,14; 8,93</t>
+          <t>2,11; 8,94</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1180,17 +1180,17 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>12,27; 23,43</t>
+          <t>12,54; 23,42</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>6,62; 9,24</t>
+          <t>6,05; 8,58</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>2,96; 7,21</t>
+          <t>3,03; 7,29</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
@@ -1200,7 +1200,7 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>9,34; 16,1</t>
+          <t>9,38; 15,95</t>
         </is>
       </c>
     </row>
@@ -1217,7 +1217,7 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>5,35%</t>
+          <t>4,98%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
@@ -1237,7 +1237,7 @@
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>9,37%</t>
+          <t>9,27%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
@@ -1257,7 +1257,7 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>7,9%</t>
+          <t>7,67%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
@@ -1285,12 +1285,12 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>3,43; 8,27</t>
+          <t>3,32; 7,47</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>2,41; 8,55</t>
+          <t>2,62; 8,87</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
@@ -1300,17 +1300,17 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,76; 8,74</t>
+          <t>0,87; 8,26</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>7,2; 11,85</t>
+          <t>7,31; 11,92</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>6,43; 15,65</t>
+          <t>6,11; 15,37</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1320,17 +1320,17 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>11,22; 24,84</t>
+          <t>11,07; 25,17</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>6,32; 9,9</t>
+          <t>6,14; 9,36</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>6,31; 12,36</t>
+          <t>6,24; 12,28</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
@@ -1340,7 +1340,7 @@
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>8,21; 17,9</t>
+          <t>8,46; 17,81</t>
         </is>
       </c>
     </row>
@@ -1357,7 +1357,7 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,62%</t>
+          <t>0,94%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
@@ -1377,7 +1377,7 @@
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>9,62%</t>
+          <t>8,09%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
@@ -1397,7 +1397,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>7,13%</t>
+          <t>5,86%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
@@ -1425,12 +1425,12 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,56</t>
+          <t>0,0; 4,52</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,68; 6,92</t>
+          <t>0,6; 7,48</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -1440,17 +1440,17 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>3,31; 25,35</t>
+          <t>3,77; 26,07</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>7,15; 12,37</t>
+          <t>6,24; 10,32</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>8,5; 13,11</t>
+          <t>8,28; 12,99</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -1460,17 +1460,17 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>7,58; 21,44</t>
+          <t>7,74; 21,37</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>5,4; 9,1</t>
+          <t>4,53; 7,48</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>6,74; 10,49</t>
+          <t>6,73; 10,7</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>7,66; 19,28</t>
+          <t>7,42; 18,75</t>
         </is>
       </c>
     </row>
@@ -1497,7 +1497,7 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>4,73%</t>
+          <t>4,28%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
@@ -1517,7 +1517,7 @@
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>7,54%</t>
+          <t>7,15%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
@@ -1537,7 +1537,7 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>6,19%</t>
+          <t>5,79%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
@@ -1565,12 +1565,12 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>3,99; 5,56</t>
+          <t>3,61; 4,96</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>3,05; 5,53</t>
+          <t>2,75; 5,46</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
@@ -1580,17 +1580,17 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>5,7; 8,67</t>
+          <t>5,55; 8,47</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>6,71; 8,39</t>
+          <t>6,47; 7,98</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>5,66; 9,22</t>
+          <t>5,89; 9,17</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
@@ -1600,17 +1600,17 @@
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>10,87; 14,82</t>
+          <t>11,01; 14,74</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>5,62; 6,78</t>
+          <t>5,32; 6,34</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>4,94; 7,19</t>
+          <t>4,9; 7,2</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
@@ -1620,7 +1620,7 @@
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>8,7; 11,3</t>
+          <t>8,76; 11,35</t>
         </is>
       </c>
     </row>
@@ -1875,7 +1875,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>5069</t>
+          <t>5595</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -1895,7 +1895,7 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>5506</t>
+          <t>7025</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -1915,7 +1915,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>10575</t>
+          <t>12621</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
@@ -1943,12 +1943,12 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>3311; 7641</t>
+          <t>3596; 8223</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>10790; 26967</t>
+          <t>11382; 27710</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
@@ -1958,17 +1958,17 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>5823; 13324</t>
+          <t>6064; 13544</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>3918; 7681</t>
+          <t>5084; 9770</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>5944; 16497</t>
+          <t>6217; 17379</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
@@ -1978,17 +1978,17 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>8980; 17074</t>
+          <t>9238; 17272</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>8079; 13826</t>
+          <t>9752; 16714</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>20328; 39663</t>
+          <t>19843; 40130</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
@@ -1998,7 +1998,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>16731; 27921</t>
+          <t>17010; 28252</t>
         </is>
       </c>
     </row>
@@ -2083,7 +2083,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>3894</t>
+          <t>3352</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -2103,7 +2103,7 @@
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>5362</t>
+          <t>6091</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
@@ -2123,7 +2123,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>9256</t>
+          <t>9444</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
@@ -2151,12 +2151,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2389; 6043</t>
+          <t>1992; 5408</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>7416; 21535</t>
+          <t>7777; 22046</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -2166,17 +2166,17 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>6752; 16265</t>
+          <t>6981; 15828</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>3639; 7585</t>
+          <t>4254; 8662</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>10020; 23389</t>
+          <t>10189; 23708</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -2186,17 +2186,17 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>13613; 24917</t>
+          <t>14181; 24586</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>6983; 12470</t>
+          <t>6896; 12360</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>20230; 39731</t>
+          <t>20847; 40124</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
@@ -2206,7 +2206,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>23315; 36917</t>
+          <t>22976; 37504</t>
         </is>
       </c>
     </row>
@@ -2291,7 +2291,7 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>7213</t>
+          <t>6223</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
@@ -2311,7 +2311,7 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>5993</t>
+          <t>6662</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -2331,7 +2331,7 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>13206</t>
+          <t>12885</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
@@ -2359,12 +2359,12 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>5230; 10296</t>
+          <t>4491; 8654</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>3904; 42273</t>
+          <t>4446; 41827</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
@@ -2374,17 +2374,17 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>5263; 15696</t>
+          <t>5605; 15623</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>4354; 8208</t>
+          <t>4741; 9084</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>5594; 15121</t>
+          <t>5723; 15165</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
@@ -2394,17 +2394,17 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>7495; 18202</t>
+          <t>7253; 17696</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>10383; 16898</t>
+          <t>10149; 16165</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>7820; 54152</t>
+          <t>7636; 53327</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
@@ -2414,7 +2414,7 @@
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>14446; 29542</t>
+          <t>15056; 29666</t>
         </is>
       </c>
     </row>
@@ -2499,7 +2499,7 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>11741</t>
+          <t>10864</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
@@ -2519,7 +2519,7 @@
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>15357</t>
+          <t>14674</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
@@ -2539,7 +2539,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>27098</t>
+          <t>25538</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
@@ -2567,12 +2567,12 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>8949; 14846</t>
+          <t>8450; 13971</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>19706; 40125</t>
+          <t>19797; 37994</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -2582,17 +2582,17 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>8427; 18988</t>
+          <t>8540; 19085</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>12496; 19477</t>
+          <t>11836; 18122</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>13589; 56829</t>
+          <t>13404; 56901</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -2602,17 +2602,17 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>19450; 37150</t>
+          <t>19889; 37128</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>22976; 32101</t>
+          <t>21287; 30206</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>34675; 84587</t>
+          <t>35545; 85490</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
@@ -2622,7 +2622,7 @@
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>30044; 51802</t>
+          <t>30184; 51297</t>
         </is>
       </c>
     </row>
@@ -2707,7 +2707,7 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>4110</t>
+          <t>3704</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
@@ -2727,7 +2727,7 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>12453</t>
+          <t>11625</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
@@ -2747,7 +2747,7 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>16563</t>
+          <t>15329</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
@@ -2775,12 +2775,12 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>2640; 6355</t>
+          <t>2469; 5559</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>5069; 18018</t>
+          <t>5529; 18690</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
@@ -2790,17 +2790,17 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>407; 4695</t>
+          <t>469; 4438</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>9568; 15747</t>
+          <t>9170; 14953</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>27265; 66357</t>
+          <t>25903; 65152</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
@@ -2810,17 +2810,17 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>10558; 23373</t>
+          <t>10419; 23688</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>13250; 20763</t>
+          <t>12265; 18706</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>40057; 78474</t>
+          <t>39596; 77929</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
@@ -2830,7 +2830,7 @@
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>12135; 26452</t>
+          <t>12508; 26323</t>
         </is>
       </c>
     </row>
@@ -2915,7 +2915,7 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>279</t>
+          <t>522</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
@@ -2935,7 +2935,7 @@
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>11378</t>
+          <t>9918</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
@@ -2955,7 +2955,7 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>11656</t>
+          <t>10440</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
@@ -2983,12 +2983,12 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>0; 1159</t>
+          <t>0; 2516</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>1141; 11543</t>
+          <t>1008; 12482</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
@@ -2998,17 +2998,17 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>1208; 9263</t>
+          <t>1377; 9528</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>8460; 14627</t>
+          <t>7647; 12658</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>41630; 64234</t>
+          <t>40556; 63656</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
@@ -3018,17 +3018,17 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>4723; 13358</t>
+          <t>4823; 13315</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>8831; 14888</t>
+          <t>8067; 13327</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>44240; 68884</t>
+          <t>44209; 70257</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
@@ -3038,7 +3038,7 @@
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>7576; 19055</t>
+          <t>7332; 18531</t>
         </is>
       </c>
     </row>
@@ -3123,7 +3123,7 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>32307</t>
+          <t>30260</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
@@ -3143,7 +3143,7 @@
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>56048</t>
+          <t>55996</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
@@ -3163,7 +3163,7 @@
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>88355</t>
+          <t>86256</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
@@ -3191,12 +3191,12 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>27235; 38002</t>
+          <t>25533; 35046</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>63399; 114988</t>
+          <t>57218; 113652</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
@@ -3206,17 +3206,17 @@
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>38685; 58893</t>
+          <t>37684; 57551</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>49920; 62404</t>
+          <t>50635; 62455</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>124910; 203354</t>
+          <t>129968; 202215</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
@@ -3226,17 +3226,17 @@
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>81567; 111269</t>
+          <t>82640; 110606</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>80155; 96665</t>
+          <t>79210; 94462</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>211739; 308108</t>
+          <t>209980; 308683</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
@@ -3246,7 +3246,7 @@
       </c>
       <c r="N24" s="2" t="inlineStr">
         <is>
-          <t>124408; 161602</t>
+          <t>125272; 162298</t>
         </is>
       </c>
     </row>
